--- a/testdata/AccountManager.xlsx
+++ b/testdata/AccountManager.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="841" windowHeight="6675" windowWidth="15600" xWindow="240" yWindow="1470"/>
+    <workbookView xWindow="240" yWindow="1470" windowWidth="15600" windowHeight="6675" tabRatio="841" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AccountManager_UserAdd" r:id="rId1" sheetId="11"/>
-    <sheet name="AccountManager_UserSearch" r:id="rId2" sheetId="9"/>
-    <sheet name="AccountManager_UserUpdate" r:id="rId3" sheetId="13"/>
-    <sheet name="AccountManager_UserDelete" r:id="rId4" sheetId="16"/>
+    <sheet name="AccountManager_UserAdd" sheetId="11" r:id="rId1"/>
+    <sheet name="AccountManager_UserSearch" sheetId="9" r:id="rId2"/>
+    <sheet name="AccountManager_UserUpdate" sheetId="13" r:id="rId3"/>
+    <sheet name="AccountManager_UserDelete" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="138">
   <si>
     <t>Row Number</t>
   </si>
@@ -431,18 +431,6 @@
   </si>
   <si>
     <t>SumanAdmin1314</t>
-  </si>
-  <si>
-    <t>SumanAdmin1731</t>
-  </si>
-  <si>
-    <t>SumanAdmin1154</t>
-  </si>
-  <si>
-    <t>SumanAdmin1552</t>
-  </si>
-  <si>
-    <t>SumanAdmin1714</t>
   </si>
 </sst>
 </file>
@@ -679,50 +667,50 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="8" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="10" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -736,10 +724,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -897,7 +885,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -906,13 +894,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -922,7 +910,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -931,7 +919,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -940,7 +928,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -950,12 +938,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -986,7 +974,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1005,7 +993,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1017,8 +1005,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GB60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:GA60"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AD10" sqref="AD10"/>
@@ -9906,16 +9894,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J4"/>
+    <hyperlink ref="J4" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
@@ -10092,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -10526,7 +10514,7 @@
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
     </row>
-    <row ht="15.75" r="33" spans="1:21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -10960,14 +10948,14 @@
       <c r="N59" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -11661,7 +11649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15.75" r="33" spans="1:26" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -12096,16 +12084,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H6"/>
+    <hyperlink ref="H6" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -12636,7 +12624,7 @@
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
     </row>
-    <row ht="15.75" r="33" spans="1:16" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="32"/>
       <c r="C33" s="3"/>
@@ -12945,6 +12933,6 @@
       <c r="I59" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>